--- a/projects/EcoFoci/m2_pps_0423/data/m2_pps_0423_faire.xlsx
+++ b/projects/EcoFoci/m2_pps_0423/data/m2_pps_0423_faire.xlsx
@@ -9797,8 +9797,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n">
-        <v/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30T20:01:19Z</t>
+        </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -9973,8 +9975,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA4" s="2" t="n">
-        <v/>
+      <c r="BA4" s="2" t="inlineStr">
+        <is>
+          <t>P379DT3H58M41S</t>
+        </is>
       </c>
       <c r="BB4" s="2" t="inlineStr">
         <is>
@@ -10066,15 +10070,13 @@
         </is>
       </c>
       <c r="BU4" s="2" t="n">
-        <v/>
-      </c>
-      <c r="BV4" s="2" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV4" s="2" t="n">
+        <v>50</v>
       </c>
       <c r="BW4" s="2" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX4" s="2" t="inlineStr">
         <is>
@@ -10484,8 +10486,10 @@
       <c r="FA4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="FB4" s="2" t="n">
-        <v/>
+      <c r="FB4" s="2" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC4" s="2" t="inlineStr">
         <is>
@@ -10516,7 +10520,7 @@
         </is>
       </c>
       <c r="FI4" s="2" t="n">
-        <v/>
+        <v>1.06</v>
       </c>
       <c r="FJ4" s="2" t="inlineStr">
         <is>
@@ -10621,8 +10625,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2023-05-05T20:01:40Z</t>
+        </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -10797,8 +10803,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA5" t="n">
-        <v/>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>P374DT3H58M20S</t>
+        </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
@@ -10890,15 +10898,13 @@
         </is>
       </c>
       <c r="BU5" t="n">
-        <v/>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>50</v>
       </c>
       <c r="BW5" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
@@ -11308,8 +11314,10 @@
       <c r="FA5" t="n">
         <v>1</v>
       </c>
-      <c r="FB5" t="n">
-        <v/>
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC5" t="inlineStr">
         <is>
@@ -11340,7 +11348,7 @@
         </is>
       </c>
       <c r="FI5" t="n">
-        <v/>
+        <v>0.787</v>
       </c>
       <c r="FJ5" t="inlineStr">
         <is>
@@ -11445,8 +11453,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2023-05-10T20:01:30Z</t>
+        </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -11621,8 +11631,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA6" t="n">
-        <v/>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>P369DT3H58M30S</t>
+        </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
@@ -11714,15 +11726,13 @@
         </is>
       </c>
       <c r="BU6" t="n">
-        <v/>
-      </c>
-      <c r="BV6" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>50</v>
       </c>
       <c r="BW6" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
@@ -12132,8 +12142,10 @@
       <c r="FA6" t="n">
         <v>1</v>
       </c>
-      <c r="FB6" t="n">
-        <v/>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC6" t="inlineStr">
         <is>
@@ -12164,7 +12176,7 @@
         </is>
       </c>
       <c r="FI6" t="n">
-        <v/>
+        <v>0.422</v>
       </c>
       <c r="FJ6" t="inlineStr">
         <is>
@@ -12269,8 +12281,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2023-05-15T20:01:35Z</t>
+        </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -12445,8 +12459,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA7" t="n">
-        <v/>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>P364DT3H58M25S</t>
+        </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
@@ -12538,15 +12554,13 @@
         </is>
       </c>
       <c r="BU7" t="n">
-        <v/>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>50</v>
       </c>
       <c r="BW7" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
@@ -12956,8 +12970,10 @@
       <c r="FA7" t="n">
         <v>1</v>
       </c>
-      <c r="FB7" t="n">
-        <v/>
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC7" t="inlineStr">
         <is>
@@ -12988,7 +13004,7 @@
         </is>
       </c>
       <c r="FI7" t="n">
-        <v/>
+        <v>0.0358</v>
       </c>
       <c r="FJ7" t="inlineStr">
         <is>
@@ -13093,8 +13109,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2023-05-20T20:01:41Z</t>
+        </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -13269,8 +13287,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA8" t="n">
-        <v/>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>P359DT3H58M19S</t>
+        </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
@@ -13362,15 +13382,13 @@
         </is>
       </c>
       <c r="BU8" t="n">
-        <v/>
-      </c>
-      <c r="BV8" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>50</v>
       </c>
       <c r="BW8" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
@@ -13780,8 +13798,10 @@
       <c r="FA8" t="n">
         <v>1</v>
       </c>
-      <c r="FB8" t="n">
-        <v/>
+      <c r="FB8" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC8" t="inlineStr">
         <is>
@@ -13812,7 +13832,7 @@
         </is>
       </c>
       <c r="FI8" t="n">
-        <v/>
+        <v>0.049</v>
       </c>
       <c r="FJ8" t="inlineStr">
         <is>
@@ -13917,8 +13937,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2023-05-25T20:01:46Z</t>
+        </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -14093,8 +14115,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA9" t="n">
-        <v/>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>P354DT3H58M14S</t>
+        </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
@@ -14186,15 +14210,13 @@
         </is>
       </c>
       <c r="BU9" t="n">
-        <v/>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>50</v>
       </c>
       <c r="BW9" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
@@ -14604,8 +14626,10 @@
       <c r="FA9" t="n">
         <v>1</v>
       </c>
-      <c r="FB9" t="n">
-        <v/>
+      <c r="FB9" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC9" t="inlineStr">
         <is>
@@ -14636,7 +14660,7 @@
         </is>
       </c>
       <c r="FI9" t="n">
-        <v/>
+        <v>0.267</v>
       </c>
       <c r="FJ9" t="inlineStr">
         <is>
@@ -14741,8 +14765,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2023-05-30T20:01:51Z</t>
+        </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -14917,8 +14943,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA10" t="n">
-        <v/>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>P349DT3H58M9S</t>
+        </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
@@ -15010,15 +15038,13 @@
         </is>
       </c>
       <c r="BU10" t="n">
-        <v/>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>50</v>
       </c>
       <c r="BW10" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
@@ -15428,8 +15454,10 @@
       <c r="FA10" t="n">
         <v>1</v>
       </c>
-      <c r="FB10" t="n">
-        <v/>
+      <c r="FB10" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC10" t="inlineStr">
         <is>
@@ -15460,7 +15488,7 @@
         </is>
       </c>
       <c r="FI10" t="n">
-        <v/>
+        <v>0.641</v>
       </c>
       <c r="FJ10" t="inlineStr">
         <is>
@@ -15565,8 +15593,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2023-06-04T20:01:56Z</t>
+        </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -15741,8 +15771,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA11" t="n">
-        <v/>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>P344DT3H58M4S</t>
+        </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
@@ -15834,15 +15866,13 @@
         </is>
       </c>
       <c r="BU11" t="n">
-        <v/>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>50</v>
       </c>
       <c r="BW11" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
@@ -16252,8 +16282,10 @@
       <c r="FA11" t="n">
         <v>1</v>
       </c>
-      <c r="FB11" t="n">
-        <v/>
+      <c r="FB11" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC11" t="inlineStr">
         <is>
@@ -16284,7 +16316,7 @@
         </is>
       </c>
       <c r="FI11" t="n">
-        <v/>
+        <v>0.0546</v>
       </c>
       <c r="FJ11" t="inlineStr">
         <is>
@@ -16389,8 +16421,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2023-06-09T20:02:01Z</t>
+        </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -16565,8 +16599,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA12" t="n">
-        <v/>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>P339DT3H57M59S</t>
+        </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
@@ -16658,15 +16694,13 @@
         </is>
       </c>
       <c r="BU12" t="n">
-        <v/>
-      </c>
-      <c r="BV12" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>50</v>
       </c>
       <c r="BW12" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
@@ -17076,8 +17110,10 @@
       <c r="FA12" t="n">
         <v>1</v>
       </c>
-      <c r="FB12" t="n">
-        <v/>
+      <c r="FB12" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC12" t="inlineStr">
         <is>
@@ -17108,7 +17144,7 @@
         </is>
       </c>
       <c r="FI12" t="n">
-        <v/>
+        <v>0.0153</v>
       </c>
       <c r="FJ12" t="inlineStr">
         <is>
@@ -17213,8 +17249,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2023-06-14T20:02:07Z</t>
+        </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -17389,8 +17427,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA13" t="n">
-        <v/>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>P334DT3H57M53S</t>
+        </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
@@ -17482,15 +17522,13 @@
         </is>
       </c>
       <c r="BU13" t="n">
-        <v/>
-      </c>
-      <c r="BV13" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>50</v>
       </c>
       <c r="BW13" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
@@ -17900,8 +17938,10 @@
       <c r="FA13" t="n">
         <v>1</v>
       </c>
-      <c r="FB13" t="n">
-        <v/>
+      <c r="FB13" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC13" t="inlineStr">
         <is>
@@ -17932,7 +17972,7 @@
         </is>
       </c>
       <c r="FI13" t="n">
-        <v/>
+        <v>2.71</v>
       </c>
       <c r="FJ13" t="inlineStr">
         <is>
@@ -18037,8 +18077,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2023-06-19T20:02:12Z</t>
+        </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -18213,8 +18255,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA14" t="n">
-        <v/>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>P329DT3H57M48S</t>
+        </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
@@ -18306,15 +18350,13 @@
         </is>
       </c>
       <c r="BU14" t="n">
-        <v/>
-      </c>
-      <c r="BV14" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>50</v>
       </c>
       <c r="BW14" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
@@ -18724,8 +18766,10 @@
       <c r="FA14" t="n">
         <v>1</v>
       </c>
-      <c r="FB14" t="n">
-        <v/>
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC14" t="inlineStr">
         <is>
@@ -18756,7 +18800,7 @@
         </is>
       </c>
       <c r="FI14" t="n">
-        <v/>
+        <v>1.83</v>
       </c>
       <c r="FJ14" t="inlineStr">
         <is>
@@ -18861,8 +18905,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2023-06-24T20:02:17Z</t>
+        </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -19037,8 +19083,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA15" t="n">
-        <v/>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>P324DT3H57M43S</t>
+        </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
@@ -19130,15 +19178,13 @@
         </is>
       </c>
       <c r="BU15" t="n">
-        <v/>
-      </c>
-      <c r="BV15" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>50</v>
       </c>
       <c r="BW15" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX15" t="inlineStr">
         <is>
@@ -19548,8 +19594,10 @@
       <c r="FA15" t="n">
         <v>1</v>
       </c>
-      <c r="FB15" t="n">
-        <v/>
+      <c r="FB15" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC15" t="inlineStr">
         <is>
@@ -19580,7 +19628,7 @@
         </is>
       </c>
       <c r="FI15" t="n">
-        <v/>
+        <v>0.342</v>
       </c>
       <c r="FJ15" t="inlineStr">
         <is>
@@ -19685,8 +19733,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2023-06-29T20:01:23Z</t>
+        </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -19861,8 +19911,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA16" t="n">
-        <v/>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>P319DT3H58M37S</t>
+        </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
@@ -19954,15 +20006,13 @@
         </is>
       </c>
       <c r="BU16" t="n">
-        <v/>
-      </c>
-      <c r="BV16" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>50</v>
       </c>
       <c r="BW16" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX16" t="inlineStr">
         <is>
@@ -20372,8 +20422,10 @@
       <c r="FA16" t="n">
         <v>1</v>
       </c>
-      <c r="FB16" t="n">
-        <v/>
+      <c r="FB16" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC16" t="inlineStr">
         <is>
@@ -20404,7 +20456,7 @@
         </is>
       </c>
       <c r="FI16" t="n">
-        <v/>
+        <v>0.8529999999999999</v>
       </c>
       <c r="FJ16" t="inlineStr">
         <is>
@@ -20509,8 +20561,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2023-07-04T20:02:25Z</t>
+        </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -20685,8 +20739,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA17" t="n">
-        <v/>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>P314DT3H57M35S</t>
+        </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
@@ -20778,15 +20834,13 @@
         </is>
       </c>
       <c r="BU17" t="n">
-        <v/>
-      </c>
-      <c r="BV17" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>50</v>
       </c>
       <c r="BW17" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
@@ -21196,8 +21250,10 @@
       <c r="FA17" t="n">
         <v>1</v>
       </c>
-      <c r="FB17" t="n">
-        <v/>
+      <c r="FB17" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC17" t="inlineStr">
         <is>
@@ -21228,7 +21284,7 @@
         </is>
       </c>
       <c r="FI17" t="n">
-        <v/>
+        <v>1.42</v>
       </c>
       <c r="FJ17" t="inlineStr">
         <is>
@@ -21333,8 +21389,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2023-07-09T20:02:21Z</t>
+        </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -21509,8 +21567,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA18" t="n">
-        <v/>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>P309DT3H57M39S</t>
+        </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
@@ -21602,15 +21662,13 @@
         </is>
       </c>
       <c r="BU18" t="n">
-        <v/>
-      </c>
-      <c r="BV18" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>50</v>
       </c>
       <c r="BW18" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
@@ -22020,8 +22078,10 @@
       <c r="FA18" t="n">
         <v>1</v>
       </c>
-      <c r="FB18" t="n">
-        <v/>
+      <c r="FB18" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC18" t="inlineStr">
         <is>
@@ -22052,7 +22112,7 @@
         </is>
       </c>
       <c r="FI18" t="n">
-        <v/>
+        <v>2.08</v>
       </c>
       <c r="FJ18" t="inlineStr">
         <is>
@@ -22157,8 +22217,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2023-07-14T20:02:16Z</t>
+        </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -22333,8 +22395,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA19" t="n">
-        <v/>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>P304DT3H57M44S</t>
+        </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
@@ -22426,15 +22490,13 @@
         </is>
       </c>
       <c r="BU19" t="n">
-        <v/>
-      </c>
-      <c r="BV19" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>50</v>
       </c>
       <c r="BW19" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX19" t="inlineStr">
         <is>
@@ -22844,8 +22906,10 @@
       <c r="FA19" t="n">
         <v>1</v>
       </c>
-      <c r="FB19" t="n">
-        <v/>
+      <c r="FB19" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC19" t="inlineStr">
         <is>
@@ -22876,7 +22940,7 @@
         </is>
       </c>
       <c r="FI19" t="n">
-        <v/>
+        <v>0.783</v>
       </c>
       <c r="FJ19" t="inlineStr">
         <is>
@@ -22981,8 +23045,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q20" t="n">
-        <v/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2023-07-19T20:02:11Z</t>
+        </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -23157,8 +23223,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA20" t="n">
-        <v/>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>P299DT3H57M49S</t>
+        </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
@@ -23250,15 +23318,13 @@
         </is>
       </c>
       <c r="BU20" t="n">
-        <v/>
-      </c>
-      <c r="BV20" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>50</v>
       </c>
       <c r="BW20" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX20" t="inlineStr">
         <is>
@@ -23668,8 +23734,10 @@
       <c r="FA20" t="n">
         <v>1</v>
       </c>
-      <c r="FB20" t="n">
-        <v/>
+      <c r="FB20" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC20" t="inlineStr">
         <is>
@@ -23700,7 +23768,7 @@
         </is>
       </c>
       <c r="FI20" t="n">
-        <v/>
+        <v>1.17</v>
       </c>
       <c r="FJ20" t="inlineStr">
         <is>
@@ -23805,8 +23873,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q21" t="n">
-        <v/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2023-07-24T20:02:05Z</t>
+        </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -23981,8 +24051,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA21" t="n">
-        <v/>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>P294DT3H57M55S</t>
+        </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
@@ -24074,15 +24146,13 @@
         </is>
       </c>
       <c r="BU21" t="n">
-        <v/>
-      </c>
-      <c r="BV21" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>50</v>
       </c>
       <c r="BW21" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX21" t="inlineStr">
         <is>
@@ -24492,8 +24562,10 @@
       <c r="FA21" t="n">
         <v>1</v>
       </c>
-      <c r="FB21" t="n">
-        <v/>
+      <c r="FB21" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC21" t="inlineStr">
         <is>
@@ -24524,7 +24596,7 @@
         </is>
       </c>
       <c r="FI21" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="FJ21" t="inlineStr">
         <is>
@@ -24629,8 +24701,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2023-07-29T20:02:00Z</t>
+        </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -24805,8 +24879,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA22" t="n">
-        <v/>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>P289DT3H58M</t>
+        </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
@@ -24898,15 +24974,13 @@
         </is>
       </c>
       <c r="BU22" t="n">
-        <v/>
-      </c>
-      <c r="BV22" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>50</v>
       </c>
       <c r="BW22" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX22" t="inlineStr">
         <is>
@@ -25316,8 +25390,10 @@
       <c r="FA22" t="n">
         <v>1</v>
       </c>
-      <c r="FB22" t="n">
-        <v/>
+      <c r="FB22" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC22" t="inlineStr">
         <is>
@@ -25348,7 +25424,7 @@
         </is>
       </c>
       <c r="FI22" t="n">
-        <v/>
+        <v>1.1</v>
       </c>
       <c r="FJ22" t="inlineStr">
         <is>
@@ -25453,8 +25529,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q23" t="n">
-        <v/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2023-08-03T20:01:55Z</t>
+        </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -25629,8 +25707,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA23" t="n">
-        <v/>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>P284DT3H58M5S</t>
+        </is>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
@@ -25722,15 +25802,13 @@
         </is>
       </c>
       <c r="BU23" t="n">
-        <v/>
-      </c>
-      <c r="BV23" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>50</v>
       </c>
       <c r="BW23" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX23" t="inlineStr">
         <is>
@@ -26140,8 +26218,10 @@
       <c r="FA23" t="n">
         <v>1</v>
       </c>
-      <c r="FB23" t="n">
-        <v/>
+      <c r="FB23" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC23" t="inlineStr">
         <is>
@@ -26172,7 +26252,7 @@
         </is>
       </c>
       <c r="FI23" t="n">
-        <v/>
+        <v>1.17</v>
       </c>
       <c r="FJ23" t="inlineStr">
         <is>
@@ -26277,8 +26357,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2023-08-08T20:01:50Z</t>
+        </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -26453,8 +26535,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA24" t="n">
-        <v/>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>P279DT3H58M10S</t>
+        </is>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
@@ -26546,15 +26630,13 @@
         </is>
       </c>
       <c r="BU24" t="n">
-        <v/>
-      </c>
-      <c r="BV24" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>50</v>
       </c>
       <c r="BW24" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX24" t="inlineStr">
         <is>
@@ -26964,8 +27046,10 @@
       <c r="FA24" t="n">
         <v>1</v>
       </c>
-      <c r="FB24" t="n">
-        <v/>
+      <c r="FB24" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC24" t="inlineStr">
         <is>
@@ -26996,7 +27080,7 @@
         </is>
       </c>
       <c r="FI24" t="n">
-        <v/>
+        <v>0.783</v>
       </c>
       <c r="FJ24" t="inlineStr">
         <is>
@@ -27101,8 +27185,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2023-08-13T20:01:45Z</t>
+        </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -27277,8 +27363,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA25" t="n">
-        <v/>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>P274DT3H58M15S</t>
+        </is>
       </c>
       <c r="BB25" t="inlineStr">
         <is>
@@ -27370,15 +27458,13 @@
         </is>
       </c>
       <c r="BU25" t="n">
-        <v/>
-      </c>
-      <c r="BV25" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>50</v>
       </c>
       <c r="BW25" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX25" t="inlineStr">
         <is>
@@ -27788,8 +27874,10 @@
       <c r="FA25" t="n">
         <v>1</v>
       </c>
-      <c r="FB25" t="n">
-        <v/>
+      <c r="FB25" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC25" t="inlineStr">
         <is>
@@ -27820,7 +27908,7 @@
         </is>
       </c>
       <c r="FI25" t="n">
-        <v/>
+        <v>0.861</v>
       </c>
       <c r="FJ25" t="inlineStr">
         <is>
@@ -27925,8 +28013,10 @@
           <t>USA: Bering Sea</t>
         </is>
       </c>
-      <c r="Q26" t="n">
-        <v/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2023-08-18T20:01:39Z</t>
+        </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -28101,8 +28191,10 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="BA26" t="n">
-        <v/>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>P269DT3H58M21S</t>
+        </is>
       </c>
       <c r="BB26" t="inlineStr">
         <is>
@@ -28194,15 +28286,13 @@
         </is>
       </c>
       <c r="BU26" t="n">
-        <v/>
-      </c>
-      <c r="BV26" t="inlineStr">
-        <is>
-          <t>50 m</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>50</v>
       </c>
       <c r="BW26" t="n">
-        <v/>
+        <v>71</v>
       </c>
       <c r="BX26" t="inlineStr">
         <is>
@@ -28612,8 +28702,10 @@
       <c r="FA26" t="n">
         <v>1</v>
       </c>
-      <c r="FB26" t="n">
-        <v/>
+      <c r="FB26" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_7</t>
+        </is>
       </c>
       <c r="FC26" t="inlineStr">
         <is>
@@ -28644,7 +28736,7 @@
         </is>
       </c>
       <c r="FI26" t="n">
-        <v/>
+        <v>1.26</v>
       </c>
       <c r="FJ26" t="inlineStr">
         <is>
